--- a/results/FrequencyTables/26990633_LTR-B.xlsx
+++ b/results/FrequencyTables/26990633_LTR-B.xlsx
@@ -468,25 +468,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00223048327137546</v>
       </c>
       <c r="D2">
-        <v>0.0103092783505155</v>
+        <v>0.0423791821561338</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00223048327137546</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.992565055762082</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.041635687732342</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00371747211895911</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.888475836431227</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -495,43 +495,43 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.618556701030928</v>
+        <v>0.642379182156134</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00223048327137546</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.980669144981413</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.985873605947955</v>
       </c>
       <c r="P2">
-        <v>0.11340206185567</v>
+        <v>0.179182156133829</v>
       </c>
       <c r="Q2">
-        <v>0.731958762886598</v>
+        <v>0.568029739776952</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.990334572490706</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00297397769516729</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00297397769516729</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0111524163568773</v>
       </c>
       <c r="V2">
-        <v>0.103092783505155</v>
+        <v>0.150185873605948</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00520446096654275</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0111524163568773</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,22 +539,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.993308550185874</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.89814126394052</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00520446096654275</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00594795539033457</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.000743494423791822</v>
       </c>
       <c r="G3">
-        <v>0.0412371134020619</v>
+        <v>0.0148698884758364</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -563,49 +563,49 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.987360594795539</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00148698884758364</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.000743494423791822</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.950185873605948</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00446096654275093</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00446096654275093</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00817843866171004</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00223048327137546</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00520446096654275</v>
       </c>
       <c r="S3">
-        <v>0.938144329896907</v>
+        <v>0.863940520446097</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00817843866171004</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.896907216494845</v>
+        <v>0.739776951672863</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00297397769516729</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0163568773234201</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00148698884758364</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00594795539033457</v>
       </c>
       <c r="D4">
-        <v>0.989690721649485</v>
+        <v>0.850557620817844</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.991078066914498</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00297397769516729</v>
       </c>
       <c r="G4">
-        <v>0.958762886597938</v>
+        <v>0.937546468401487</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00297397769516729</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0921933085501859</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.000743494423791822</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00594795539033457</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00371747211895911</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0118959107806691</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00446096654275093</v>
       </c>
       <c r="P4">
-        <v>0.88659793814433</v>
+        <v>0.811895910780669</v>
       </c>
       <c r="Q4">
-        <v>0.268041237113402</v>
+        <v>0.331598513011152</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00446096654275093</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0966542750929368</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00297397769516729</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.984386617100372</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00892193308550186</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.107063197026022</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.883271375464684</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00520446096654275</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0936802973977695</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.10185873605948</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00371747211895911</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00594795539033457</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.993308550185874</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0193308550185874</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0118959107806691</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.998513011152416</v>
       </c>
       <c r="L5">
-        <v>0.381443298969072</v>
+        <v>0.35092936802974</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0438661710037175</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00297397769516729</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00520446096654275</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.000743494423791822</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.0981412639405204</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0618556701030928</v>
+        <v>0.0356877323420074</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.985873605947955</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00446096654275093</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.101115241635688</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.884758364312268</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0892193308550186</v>
       </c>
     </row>
   </sheetData>
